--- a/StorageBOSSE/material_cost_sensitivity_outputs.xlsx
+++ b/StorageBOSSE/material_cost_sensitivity_outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banderso2/Documents/BOS/StorageBOSSE/hybrids_shared_infrastructure/StorageBOSSE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F31694-7D50-4547-A405-3B7D55D934A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5FB33-0532-1140-B869-838EA31BCA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="4260" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>material_cost_multiplier</t>
   </si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>%_shared_cost_L3</t>
+  </si>
+  <si>
+    <t>area undefined</t>
   </si>
 </sst>
 </file>
@@ -98,21 +104,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -120,30 +120,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,695 +428,828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>116298238.51973639</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>122894328.7680881</v>
+      </c>
+      <c r="F2">
         <v>100000000</v>
       </c>
-      <c r="G2" s="3">
-        <v>16298238.519736409</v>
-      </c>
-      <c r="H2" s="3">
-        <v>8112764.6185541507</v>
-      </c>
-      <c r="I2" s="3">
-        <v>59266.880728357028</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="G2">
+        <v>22894328.768088121</v>
+      </c>
+      <c r="H2">
+        <v>14708854.86690587</v>
+      </c>
+      <c r="I2">
+        <v>94076.512915522326</v>
+      </c>
+      <c r="J2">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1049740.5</v>
       </c>
-      <c r="L2" s="3">
-        <v>3812394.586344792</v>
-      </c>
-      <c r="M2" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="L2">
+        <v>9938415.2025093436</v>
+      </c>
+      <c r="M2">
+        <v>615203</v>
+      </c>
+      <c r="N2">
         <v>54950</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P2" s="3">
-        <v>14.014174872451321</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="P2">
+        <v>18.629280128370809</v>
+      </c>
+      <c r="Q2">
         <v>12191684.052663259</v>
       </c>
-      <c r="R2" s="3">
-        <v>74.803691441254202</v>
-      </c>
-      <c r="S2" s="3">
-        <v>12250950.933391619</v>
-      </c>
-      <c r="T2" s="3">
-        <v>75.16733123371759</v>
-      </c>
-      <c r="U2" s="3">
-        <v>12258990.933391619</v>
-      </c>
-      <c r="V2" s="3">
-        <v>75.216661718053444</v>
+      <c r="R2">
+        <v>53.251982952463607</v>
+      </c>
+      <c r="S2">
+        <v>12285760.565578779</v>
+      </c>
+      <c r="T2">
+        <v>53.662899183590042</v>
+      </c>
+      <c r="U2">
+        <v>12293800.565578779</v>
+      </c>
+      <c r="V2">
+        <v>53.698017050907502</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>117109824.7163361</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>123705914.96468779</v>
+      </c>
+      <c r="F3">
         <v>100000000</v>
       </c>
-      <c r="G3" s="3">
-        <v>17109824.716336131</v>
-      </c>
-      <c r="H3" s="3">
-        <v>8924350.8151538707</v>
-      </c>
-      <c r="I3" s="3">
-        <v>70380.055294075777</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="G3">
+        <v>23705914.964687839</v>
+      </c>
+      <c r="H3">
+        <v>15520441.06350559</v>
+      </c>
+      <c r="I3">
+        <v>105189.6874812411</v>
+      </c>
+      <c r="J3">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>1049740.5</v>
       </c>
-      <c r="L3" s="3">
-        <v>4612867.6083787922</v>
-      </c>
-      <c r="M3" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="L3">
+        <v>10738888.224543341</v>
+      </c>
+      <c r="M3">
+        <v>615203</v>
+      </c>
+      <c r="N3">
         <v>54950</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P3" s="3">
-        <v>14.610067735802369</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="P3">
+        <v>19.163121643338361</v>
+      </c>
+      <c r="Q3">
         <v>12191684.052663259</v>
       </c>
-      <c r="R3" s="3">
-        <v>71.255458514562548</v>
-      </c>
-      <c r="S3" s="3">
-        <v>12262064.107957341</v>
-      </c>
-      <c r="T3" s="3">
-        <v>71.666801450337218</v>
-      </c>
-      <c r="U3" s="3">
-        <v>12270104.107957341</v>
-      </c>
-      <c r="V3" s="3">
-        <v>71.713791996022493</v>
+      <c r="R3">
+        <v>51.428869422774447</v>
+      </c>
+      <c r="S3">
+        <v>12296873.740144501</v>
+      </c>
+      <c r="T3">
+        <v>51.872597022565181</v>
+      </c>
+      <c r="U3">
+        <v>12304913.740144501</v>
+      </c>
+      <c r="V3">
+        <v>51.906512608662482</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>117921410.9129359</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>124517501.16128761</v>
+      </c>
+      <c r="F4">
         <v>100000000</v>
       </c>
-      <c r="G4" s="3">
-        <v>17921410.912935849</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9735937.0117535889</v>
-      </c>
-      <c r="I4" s="3">
-        <v>81493.229859794519</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="G4">
+        <v>24517501.161287561</v>
+      </c>
+      <c r="H4">
+        <v>16332027.26010531</v>
+      </c>
+      <c r="I4">
+        <v>116302.8620469598</v>
+      </c>
+      <c r="J4">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>1049740.5</v>
       </c>
-      <c r="L4" s="3">
-        <v>5413340.6304127919</v>
-      </c>
-      <c r="M4" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="L4">
+        <v>11539361.246577339</v>
+      </c>
+      <c r="M4">
+        <v>615203</v>
+      </c>
+      <c r="N4">
         <v>54950</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P4" s="3">
-        <v>15.197758213873181</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="P4">
+        <v>19.69000416216997</v>
+      </c>
+      <c r="Q4">
         <v>12191684.052663259</v>
       </c>
-      <c r="R4" s="3">
-        <v>68.028595024642755</v>
-      </c>
-      <c r="S4" s="3">
-        <v>12273177.282523051</v>
-      </c>
-      <c r="T4" s="3">
-        <v>68.483320549634612</v>
-      </c>
-      <c r="U4" s="3">
-        <v>12281217.282523051</v>
-      </c>
-      <c r="V4" s="3">
-        <v>68.528183088856892</v>
+      <c r="R4">
+        <v>49.726454472095973</v>
+      </c>
+      <c r="S4">
+        <v>12307986.91471022</v>
+      </c>
+      <c r="T4">
+        <v>50.200821175626913</v>
+      </c>
+      <c r="U4">
+        <v>12316026.91471022</v>
+      </c>
+      <c r="V4">
+        <v>50.233614077102096</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>118732997.1095356</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>125329087.3578873</v>
+      </c>
+      <c r="F5">
         <v>100000000</v>
       </c>
-      <c r="G5" s="3">
-        <v>18732997.10953556</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10547523.208353311</v>
-      </c>
-      <c r="I5" s="3">
-        <v>92606.404425513276</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="G5">
+        <v>25329087.357887279</v>
+      </c>
+      <c r="H5">
+        <v>17143613.45670503</v>
+      </c>
+      <c r="I5">
+        <v>127416.0366126786</v>
+      </c>
+      <c r="J5">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>1049740.5</v>
       </c>
-      <c r="L5" s="3">
-        <v>6213813.6524467925</v>
-      </c>
-      <c r="M5" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5">
+        <v>12339834.268611349</v>
+      </c>
+      <c r="M5">
+        <v>615203</v>
+      </c>
+      <c r="N5">
         <v>54950</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P5" s="3">
-        <v>15.77741450614077</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="P5">
+        <v>20.21006287675106</v>
+      </c>
+      <c r="Q5">
         <v>12191684.052663259</v>
       </c>
-      <c r="R5" s="3">
-        <v>65.081332054748401</v>
-      </c>
-      <c r="S5" s="3">
-        <v>12284290.45708877</v>
-      </c>
-      <c r="T5" s="3">
-        <v>65.575681164418484</v>
-      </c>
-      <c r="U5" s="3">
-        <v>12292330.45708877</v>
-      </c>
-      <c r="V5" s="3">
-        <v>65.618600084188714</v>
+      <c r="R5">
+        <v>48.133135949198987</v>
+      </c>
+      <c r="S5">
+        <v>12319100.089275939</v>
+      </c>
+      <c r="T5">
+        <v>48.636178300517663</v>
+      </c>
+      <c r="U5">
+        <v>12327140.089275939</v>
+      </c>
+      <c r="V5">
+        <v>48.667920462745613</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>119544583.3061353</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>126140673.554487</v>
+      </c>
+      <c r="F6">
         <v>100000000</v>
       </c>
-      <c r="G6" s="3">
-        <v>19544583.306135278</v>
-      </c>
-      <c r="H6" s="3">
-        <v>11359109.404953031</v>
-      </c>
-      <c r="I6" s="3">
-        <v>103719.578991232</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6">
+        <v>26140673.554487001</v>
+      </c>
+      <c r="H6">
+        <v>17955199.653304741</v>
+      </c>
+      <c r="I6">
+        <v>138529.21117839729</v>
+      </c>
+      <c r="J6">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>1049740.5</v>
       </c>
-      <c r="L6" s="3">
-        <v>7014286.6744807931</v>
-      </c>
-      <c r="M6" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="L6">
+        <v>13140307.29064535</v>
+      </c>
+      <c r="M6">
+        <v>615203</v>
+      </c>
+      <c r="N6">
         <v>54950</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P6" s="3">
-        <v>16.3492002444683</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="P6">
+        <v>20.723429499681099</v>
+      </c>
+      <c r="Q6">
         <v>12191684.052663259</v>
       </c>
-      <c r="R6" s="3">
-        <v>62.378838482763364</v>
-      </c>
-      <c r="S6" s="3">
-        <v>12295403.63165449</v>
-      </c>
-      <c r="T6" s="3">
-        <v>62.909520449048493</v>
-      </c>
-      <c r="U6" s="3">
-        <v>12303443.63165449</v>
-      </c>
-      <c r="V6" s="3">
-        <v>62.950657166440017</v>
+      <c r="R6">
+        <v>46.638752544961022</v>
+      </c>
+      <c r="S6">
+        <v>12330213.263841661</v>
+      </c>
+      <c r="T6">
+        <v>47.168689965623322</v>
+      </c>
+      <c r="U6">
+        <v>12338253.263841661</v>
+      </c>
+      <c r="V6">
+        <v>47.199446632941942</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>120356169.502735</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>126952259.7510867</v>
+      </c>
+      <c r="F7">
         <v>100000000</v>
       </c>
-      <c r="G7" s="3">
-        <v>20356169.502735</v>
-      </c>
-      <c r="H7" s="3">
-        <v>12170695.601552751</v>
-      </c>
-      <c r="I7" s="3">
-        <v>114832.7535569508</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="G7">
+        <v>26952259.751086719</v>
+      </c>
+      <c r="H7">
+        <v>18766785.849904459</v>
+      </c>
+      <c r="I7">
+        <v>149642.38574411609</v>
+      </c>
+      <c r="J7">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>1049740.5</v>
       </c>
-      <c r="L7" s="3">
-        <v>7814759.6965147927</v>
-      </c>
-      <c r="M7" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="L7">
+        <v>13940780.312679339</v>
+      </c>
+      <c r="M7">
+        <v>615203</v>
+      </c>
+      <c r="N7">
         <v>54950</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P7" s="3">
-        <v>16.913274647106832</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P7">
+        <v>21.230232375486331</v>
+      </c>
+      <c r="Q7">
         <v>12191684.052663259</v>
       </c>
-      <c r="R7" s="3">
-        <v>59.891837956179408</v>
-      </c>
-      <c r="S7" s="3">
-        <v>12306516.806220209</v>
-      </c>
-      <c r="T7" s="3">
-        <v>60.455955648073846</v>
-      </c>
-      <c r="U7" s="3">
-        <v>12314556.806220209</v>
-      </c>
-      <c r="V7" s="3">
-        <v>60.495452273403693</v>
+      <c r="R7">
+        <v>45.23436685924522</v>
+      </c>
+      <c r="S7">
+        <v>12341326.438407371</v>
+      </c>
+      <c r="T7">
+        <v>45.78957962109196</v>
+      </c>
+      <c r="U7">
+        <v>12349366.438407371</v>
+      </c>
+      <c r="V7">
+        <v>45.819410143928458</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>121167755.6993347</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>127763845.9476864</v>
+      </c>
+      <c r="F8">
         <v>100000000</v>
       </c>
-      <c r="G8" s="3">
-        <v>21167755.699334718</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12982281.798152469</v>
-      </c>
-      <c r="I8" s="3">
-        <v>125945.9281226695</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="G8">
+        <v>27763845.947686441</v>
+      </c>
+      <c r="H8">
+        <v>19578372.046504181</v>
+      </c>
+      <c r="I8">
+        <v>160755.56030983481</v>
+      </c>
+      <c r="J8">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>1049740.5</v>
       </c>
-      <c r="L8" s="3">
-        <v>8615232.7185487933</v>
-      </c>
-      <c r="M8" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="L8">
+        <v>14741253.33471334</v>
+      </c>
+      <c r="M8">
+        <v>615203</v>
+      </c>
+      <c r="N8">
         <v>54950</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P8" s="3">
-        <v>17.46979266650801</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8">
+        <v>21.73059658759372</v>
+      </c>
+      <c r="Q8">
         <v>12191684.052663259</v>
       </c>
-      <c r="R8" s="3">
-        <v>57.595544023811797</v>
-      </c>
-      <c r="S8" s="3">
-        <v>12317629.980785931</v>
-      </c>
-      <c r="T8" s="3">
-        <v>58.190533544248417</v>
-      </c>
-      <c r="U8" s="3">
-        <v>12325669.980785931</v>
-      </c>
-      <c r="V8" s="3">
-        <v>58.228515842013948</v>
+      <c r="R8">
+        <v>43.91208651580633</v>
+      </c>
+      <c r="S8">
+        <v>12352439.61297309</v>
+      </c>
+      <c r="T8">
+        <v>44.491096933212972</v>
+      </c>
+      <c r="U8">
+        <v>12360479.61297309</v>
+      </c>
+      <c r="V8">
+        <v>44.520055457241483</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>121979341.8959344</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>128575432.1442862</v>
+      </c>
+      <c r="F9">
         <v>100000000</v>
       </c>
-      <c r="G9" s="3">
-        <v>21979341.89593444</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13793867.99475218</v>
-      </c>
-      <c r="I9" s="3">
-        <v>137059.10268838829</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G9">
+        <v>28575432.144286159</v>
+      </c>
+      <c r="H9">
+        <v>20389958.243103899</v>
+      </c>
+      <c r="I9">
+        <v>171868.73487555361</v>
+      </c>
+      <c r="J9">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>1049740.5</v>
       </c>
-      <c r="L9" s="3">
-        <v>9415705.740582794</v>
-      </c>
-      <c r="M9" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="L9">
+        <v>15541726.35674734</v>
+      </c>
+      <c r="M9">
+        <v>615203</v>
+      </c>
+      <c r="N9">
         <v>54950</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P9" s="3">
-        <v>18.018905131236</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9">
+        <v>22.224644061253532</v>
+      </c>
+      <c r="Q9">
         <v>12191684.052663259</v>
       </c>
-      <c r="R9" s="3">
-        <v>55.468831188791768</v>
-      </c>
-      <c r="S9" s="3">
-        <v>12328743.15535165</v>
-      </c>
-      <c r="T9" s="3">
-        <v>56.092412656050087</v>
-      </c>
-      <c r="U9" s="3">
-        <v>12336783.15535165</v>
-      </c>
-      <c r="V9" s="3">
-        <v>56.128992459203729</v>
+      <c r="R9">
+        <v>42.664915760866513</v>
+      </c>
+      <c r="S9">
+        <v>12363552.78753881</v>
+      </c>
+      <c r="T9">
+        <v>43.266372053837813</v>
+      </c>
+      <c r="U9">
+        <v>12371592.78753881</v>
+      </c>
+      <c r="V9">
+        <v>43.294508111271362</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>129387018.34088591</v>
+      </c>
+      <c r="F10">
+        <v>100000000</v>
+      </c>
+      <c r="G10">
+        <v>29387018.340885881</v>
+      </c>
+      <c r="H10">
+        <v>21201544.439703621</v>
+      </c>
+      <c r="I10">
+        <v>182981.90944127229</v>
+      </c>
+      <c r="J10">
+        <v>2956469.6514810021</v>
+      </c>
+      <c r="K10">
+        <v>1049740.5</v>
+      </c>
+      <c r="L10">
+        <v>16342199.378781339</v>
+      </c>
+      <c r="M10">
+        <v>615203</v>
+      </c>
+      <c r="N10">
+        <v>54950</v>
+      </c>
+      <c r="O10">
+        <v>8185473.9011822566</v>
+      </c>
+      <c r="P10">
+        <v>22.712493662588461</v>
+      </c>
+      <c r="Q10">
+        <v>12191684.052663259</v>
+      </c>
+      <c r="R10">
+        <v>41.486631652252683</v>
+      </c>
+      <c r="S10">
+        <v>12374665.962104529</v>
+      </c>
+      <c r="T10">
+        <v>42.109294037795507</v>
+      </c>
+      <c r="U10">
+        <v>12382705.962104529</v>
+      </c>
+      <c r="V10">
+        <v>42.136653057028887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>4.5</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>130198604.5374856</v>
+      </c>
+      <c r="F11">
+        <v>100000000</v>
+      </c>
+      <c r="G11">
+        <v>30198604.5374856</v>
+      </c>
+      <c r="H11">
+        <v>22013130.636303339</v>
+      </c>
+      <c r="I11">
+        <v>194095.08400699109</v>
+      </c>
+      <c r="J11">
+        <v>2956469.6514810021</v>
+      </c>
+      <c r="K11">
+        <v>1049740.5</v>
+      </c>
+      <c r="L11">
+        <v>17142672.400815349</v>
+      </c>
+      <c r="M11">
+        <v>615203</v>
+      </c>
+      <c r="N11">
+        <v>54950</v>
+      </c>
+      <c r="O11">
+        <v>8185473.9011822566</v>
+      </c>
+      <c r="P11">
+        <v>23.19426129393813</v>
+      </c>
+      <c r="Q11">
+        <v>12191684.052663259</v>
+      </c>
+      <c r="R11">
+        <v>40.371680213003529</v>
+      </c>
+      <c r="S11">
+        <v>12385779.13667025</v>
+      </c>
+      <c r="T11">
+        <v>41.014408865468447</v>
+      </c>
+      <c r="U11">
+        <v>12393819.13667025</v>
+      </c>
+      <c r="V11">
+        <v>41.041032612238013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>122790928.0925342</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>131010190.73408531</v>
+      </c>
+      <c r="F12">
         <v>100000000</v>
       </c>
-      <c r="G10" s="3">
-        <v>22790928.092534158</v>
-      </c>
-      <c r="H10" s="3">
-        <v>14605454.1913519</v>
-      </c>
-      <c r="I10" s="3">
-        <v>148172.277254107</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="G12">
+        <v>31010190.73408531</v>
+      </c>
+      <c r="H12">
+        <v>22824716.832903061</v>
+      </c>
+      <c r="I12">
+        <v>205208.2585727098</v>
+      </c>
+      <c r="J12">
         <v>2956469.6514810021</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K12">
         <v>1049740.5</v>
       </c>
-      <c r="L10" s="3">
-        <v>10216178.762616791</v>
-      </c>
-      <c r="M10" s="3">
-        <v>179943</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="L12">
+        <v>17943145.42284935</v>
+      </c>
+      <c r="M12">
+        <v>615203</v>
+      </c>
+      <c r="N12">
         <v>54950</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O12">
         <v>8185473.9011822566</v>
       </c>
-      <c r="P10" s="3">
-        <v>18.560758882251559</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P12">
+        <v>23.670059985659801</v>
+      </c>
+      <c r="Q12">
         <v>12191684.052663259</v>
       </c>
-      <c r="R10" s="3">
-        <v>53.493583074648917</v>
-      </c>
-      <c r="S10" s="3">
-        <v>12339856.329917369</v>
-      </c>
-      <c r="T10" s="3">
-        <v>54.143720167146903</v>
-      </c>
-      <c r="U10" s="3">
-        <v>12347896.329917369</v>
-      </c>
-      <c r="V10" s="3">
-        <v>54.178997361508429</v>
+      <c r="R12">
+        <v>39.315088891931858</v>
+      </c>
+      <c r="S12">
+        <v>12396892.31123597</v>
+      </c>
+      <c r="T12">
+        <v>39.976833478840042</v>
+      </c>
+      <c r="U12">
+        <v>12404932.31123597</v>
+      </c>
+      <c r="V12">
+        <v>40.002760439654118</v>
       </c>
     </row>
   </sheetData>
